--- a/DataTest/Tiếp nhận/TC_21.xlsx
+++ b/DataTest/Tiếp nhận/TC_21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HIS api automation\DataTest\Tiếp nhận\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HIS api automation\DataTest\Tiếp nhận\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A37C0F-CF97-48B7-AD6D-11DABE69BE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CD2C16-D43C-4316-B971-87C5EC70BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C55B218-8FD0-484A-888A-069D85BE3FA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{8C55B218-8FD0-484A-888A-069D85BE3FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -628,21 +626,21 @@
   <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:BH2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,9 +822,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1931</v>
+        <v>3020</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -838,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>46200602631</v>
+        <v>46200608020</v>
       </c>
       <c r="F2">
         <v>356572156</v>
@@ -959,9 +957,9 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,7 +979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1913</v>
       </c>
